--- a/CoParticipacaoWebService/src/test/resources/haoc/input/201902/0444.NAO-LOCALIZADO.201902.002.xlsx
+++ b/CoParticipacaoWebService/src/test/resources/haoc/input/201902/0444.NAO-LOCALIZADO.201902.002.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="175">
   <si>
     <t xml:space="preserve">COD-TITULAR</t>
   </si>
@@ -371,23 +371,199 @@
   </si>
   <si>
     <t xml:space="preserve">VINICIUS CAIRO AMOEDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45357971889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMANDA SHILDER QUEIROZ DE CRISTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda Shillder Queiroz de Cristo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32616975807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA CARLA CONCEICAO MIRANDA     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA CARLA CONCEIÇÃO MIRANDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA TEREZA N RIBEIRO DA SILVA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA TEREZA MAZARIN RIBEIRO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMILA LOURENCO MARIANO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMILA LOURENÇO MARIANO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAROLINA CORONA BRANCO          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAROLINA CORONA BRANCO JUNQUEIRA FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAIANE B B RIBEIRO              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAIANE BORGES BITTENCOURT RIBEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA BASTOS OLIVEIRA         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA BASTOS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEISE CRISTINA DA ROCHA         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEISE CRISTINA DA ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIANA COSTA CARVALHO            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIANA COSTA CARVALHO DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCE MEIRA LEMOS DE OLIVEIRA   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCE MEIRE LEMOS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELA FERRUFINO DOMINGUES    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELA FERRUFINO DOMINGUES FORNACIARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIRLANE QUEIROZ DE ANDRADE LINS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIRLANE QUEIROZ ANDRADE LINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRIS APARECIDA C S VIEIRA       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRIS APARECIDA COSME DA SILVA VIEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSIE SILVA BARBOZA SOUZA       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSIE DA SILVA BARBOSA DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAISA AYUSSO TEIXEIRA PREZOTO   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laisa Ayusso Teixeira Prezoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIENE ILZA DO NASCIMENTO SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luciene  Ilza do Nascimento Carmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIANA CASTAGNA DALLACQUA      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIANA CASTAGNA DALL ACQUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIANA PAES FERNANDES          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana Paes Fernandes Adão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARLENE SIQUEIRA DE SOUSA       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARLENE SIQUEIRA DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHELE DE SOUZA DOS SANTOS     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHELE DE SOUZA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHELE EUGENIO DA SILVA        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHELE EUGENIO DA SILVA VIGARINHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAIRA DA ROCHA MACHADO          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAIRA MACHADO ARRUDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA B CREMASCHI MARCOS     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia Barauna Cremaschi Marcos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA FERREIRA OLIVEIRA      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA FERREIRA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATIANE AGUIAR MARTINS          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATIANE AGUIAR MARTINS ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAIS CARDOSO MARQUES MOURA     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thais Cardoso Marques Moura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAIS CRISTINA FERNANDES SILVA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAIS CRISTINA FERNANDES DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESSA CARMONA Z DOS SANTOS    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANESSA CARMONA ZONTA DOS SANTOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -413,6 +589,13 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -472,7 +655,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,14 +688,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -582,10 +773,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F84" activeCellId="0" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,10 +849,10 @@
         <v>18458</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L2" s="7" t="n">
         <v>67.05</v>
@@ -690,10 +881,10 @@
         <v>30300</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L3" s="7" t="n">
         <v>226.58</v>
@@ -706,7 +897,7 @@
       <c r="B4" s="3" t="n">
         <v>44400011524010</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="n">
@@ -722,10 +913,10 @@
         <v>42304</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L4" s="7" t="n">
         <v>34.2</v>
@@ -738,7 +929,7 @@
       <c r="B5" s="3" t="n">
         <v>44400012025011</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="n">
@@ -754,10 +945,10 @@
         <v>40995</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L5" s="7" t="n">
         <v>19.4</v>
@@ -770,7 +961,7 @@
       <c r="B6" s="3" t="n">
         <v>44400006946010</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="3" t="n">
@@ -786,10 +977,10 @@
         <v>36363</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L6" s="7" t="n">
         <v>182.65</v>
@@ -802,7 +993,7 @@
       <c r="B7" s="3" t="n">
         <v>44400009572012</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="n">
@@ -818,10 +1009,10 @@
         <v>39862</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L7" s="7" t="n">
         <v>34.71</v>
@@ -850,10 +1041,10 @@
         <v>34547</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L8" s="7" t="n">
         <v>110.42</v>
@@ -882,10 +1073,10 @@
         <v>30426</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L9" s="7" t="n">
         <v>17.99</v>
@@ -914,10 +1105,10 @@
         <v>22429</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L10" s="7" t="n">
         <v>19.41</v>
@@ -946,10 +1137,10 @@
         <v>29599</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L11" s="7" t="n">
         <v>241.28</v>
@@ -962,7 +1153,7 @@
       <c r="B12" s="3" t="n">
         <v>44400009693011</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3" t="n">
@@ -977,7 +1168,7 @@
       <c r="I12" s="5" t="n">
         <v>35747</v>
       </c>
-      <c r="J12" s="6" t="n">
+      <c r="J12" s="5" t="n">
         <v>42309</v>
       </c>
       <c r="L12" s="7" t="n">
@@ -1007,10 +1198,10 @@
         <v>28752</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L13" s="7" t="n">
         <v>42.23</v>
@@ -1039,10 +1230,10 @@
         <v>31655</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L14" s="7" t="n">
         <v>1.82</v>
@@ -1071,10 +1262,10 @@
         <v>23625</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L15" s="7" t="n">
         <v>14.01</v>
@@ -1103,10 +1294,10 @@
         <v>29461</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L16" s="7" t="n">
         <v>202.47</v>
@@ -1135,10 +1326,10 @@
         <v>33371</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L17" s="7" t="n">
         <v>50.2</v>
@@ -1167,10 +1358,10 @@
         <v>27302</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L18" s="7" t="n">
         <v>55.83</v>
@@ -1199,10 +1390,10 @@
         <v>42652</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L19" s="7" t="n">
         <v>97.82</v>
@@ -1230,7 +1421,7 @@
       <c r="I20" s="5" t="n">
         <v>34622</v>
       </c>
-      <c r="J20" s="6" t="n">
+      <c r="J20" s="5" t="n">
         <v>42309</v>
       </c>
       <c r="L20" s="7" t="n">
@@ -1260,10 +1451,10 @@
         <v>29859</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L21" s="7" t="n">
         <v>53.19</v>
@@ -1292,10 +1483,10 @@
         <v>41483</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L22" s="7" t="n">
         <v>19.4</v>
@@ -1324,10 +1515,10 @@
         <v>29179</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L23" s="7" t="n">
         <v>0.01</v>
@@ -1356,10 +1547,10 @@
         <v>29024</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L24" s="7" t="n">
         <v>19.54</v>
@@ -1372,7 +1563,7 @@
       <c r="B25" s="3" t="n">
         <v>44400008623011</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="3" t="n">
@@ -1388,10 +1579,10 @@
         <v>38894</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L25" s="7" t="n">
         <v>19.4</v>
@@ -1420,10 +1611,10 @@
         <v>30948</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L26" s="7" t="n">
         <v>52.17</v>
@@ -1452,10 +1643,10 @@
         <v>29639</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L27" s="7" t="n">
         <v>15.08</v>
@@ -1468,7 +1659,7 @@
       <c r="B28" s="3" t="n">
         <v>44400010982010</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="3" t="n">
@@ -1484,10 +1675,10 @@
         <v>40667</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L28" s="7" t="n">
         <v>128.69</v>
@@ -1516,10 +1707,10 @@
         <v>26674</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L29" s="7" t="n">
         <v>-8.36</v>
@@ -1548,10 +1739,10 @@
         <v>38012</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L30" s="7" t="n">
         <v>23.64</v>
@@ -1580,10 +1771,10 @@
         <v>28193</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L31" s="7" t="n">
         <v>40.67</v>
@@ -1612,10 +1803,10 @@
         <v>38875</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L32" s="7" t="n">
         <v>137.06</v>
@@ -1644,10 +1835,10 @@
         <v>32989</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L33" s="7" t="n">
         <v>0.02</v>
@@ -1676,10 +1867,10 @@
         <v>33351</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L34" s="7" t="n">
         <v>33.59</v>
@@ -1708,10 +1899,10 @@
         <v>25806</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L35" s="7" t="n">
         <v>99.07</v>
@@ -1740,10 +1931,10 @@
         <v>24491</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L36" s="7" t="n">
         <v>0.01</v>
@@ -1772,10 +1963,10 @@
         <v>25362</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L37" s="7" t="n">
         <v>95.38</v>
@@ -1803,7 +1994,7 @@
       <c r="I38" s="5" t="n">
         <v>34643</v>
       </c>
-      <c r="J38" s="6" t="n">
+      <c r="J38" s="5" t="n">
         <v>42309</v>
       </c>
       <c r="L38" s="7" t="n">
@@ -1833,10 +2024,10 @@
         <v>21531</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L39" s="7" t="n">
         <v>191.61</v>
@@ -1865,10 +2056,10 @@
         <v>43250</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L40" s="7" t="n">
         <v>19.4</v>
@@ -1881,7 +2072,7 @@
       <c r="B41" s="3" t="n">
         <v>44400012025010</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="3" t="n">
@@ -1897,10 +2088,10 @@
         <v>41568</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L41" s="7" t="n">
         <v>41</v>
@@ -1929,10 +2120,10 @@
         <v>42961</v>
       </c>
       <c r="J42" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L42" s="7" t="n">
         <v>20</v>
@@ -1961,10 +2152,10 @@
         <v>32197</v>
       </c>
       <c r="J43" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L43" s="7" t="n">
         <v>14.06</v>
@@ -1993,10 +2184,10 @@
         <v>33741</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L44" s="7" t="n">
         <v>3.8</v>
@@ -2025,10 +2216,10 @@
         <v>31807</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L45" s="7" t="n">
         <v>4.45</v>
@@ -2057,10 +2248,10 @@
         <v>30435</v>
       </c>
       <c r="J46" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L46" s="7" t="n">
         <v>19.4</v>
@@ -2089,10 +2280,10 @@
         <v>35312</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L47" s="7" t="n">
         <v>52.44</v>
@@ -2121,10 +2312,10 @@
         <v>33324</v>
       </c>
       <c r="J48" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L48" s="7" t="n">
         <v>106.73</v>
@@ -2153,10 +2344,10 @@
         <v>32086</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K49" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L49" s="7" t="n">
         <v>50.2</v>
@@ -2185,10 +2376,10 @@
         <v>29154</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K50" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L50" s="7" t="n">
         <v>36.9</v>
@@ -2217,10 +2408,10 @@
         <v>24589</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K51" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L51" s="7" t="n">
         <v>316.04</v>
@@ -2248,7 +2439,7 @@
       <c r="I52" s="5" t="n">
         <v>34658</v>
       </c>
-      <c r="J52" s="6" t="n">
+      <c r="J52" s="5" t="n">
         <v>42309</v>
       </c>
       <c r="L52" s="7" t="n">
@@ -2278,10 +2469,10 @@
         <v>28673</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L53" s="7" t="n">
         <v>94.9</v>
@@ -2294,7 +2485,7 @@
       <c r="B54" s="3" t="n">
         <v>44400012591010</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="3" t="n">
@@ -2310,10 +2501,10 @@
         <v>41073</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L54" s="7" t="n">
         <v>19.4</v>
@@ -2342,10 +2533,10 @@
         <v>29396</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K55" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L55" s="7" t="n">
         <v>19.4</v>
@@ -2374,10 +2565,10 @@
         <v>43207</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K56" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L56" s="7" t="n">
         <v>19.4</v>
@@ -2406,10 +2597,10 @@
         <v>27654</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K57" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L57" s="7" t="n">
         <v>129</v>
@@ -2438,13 +2629,360 @@
         <v>36403</v>
       </c>
       <c r="J58" s="6" t="n">
-        <v>42309</v>
+        <v>43101</v>
       </c>
       <c r="K58" s="5" t="n">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="L58" s="7" t="n">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>13029</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>12564</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="0"/>
+      <c r="F60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>9899</v>
+      </c>
+      <c r="E61" s="0"/>
+      <c r="F61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>12930</v>
+      </c>
+      <c r="E62" s="0"/>
+      <c r="F62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>11211</v>
+      </c>
+      <c r="E63" s="0"/>
+      <c r="F63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>13143</v>
+      </c>
+      <c r="E64" s="0"/>
+      <c r="F64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>10467</v>
+      </c>
+      <c r="E65" s="0"/>
+      <c r="F65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E66" s="0"/>
+      <c r="F66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>9458</v>
+      </c>
+      <c r="E67" s="0"/>
+      <c r="F67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>12829</v>
+      </c>
+      <c r="E68" s="0"/>
+      <c r="F68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>12878</v>
+      </c>
+      <c r="E69" s="0"/>
+      <c r="F69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>12922</v>
+      </c>
+      <c r="E70" s="0"/>
+      <c r="F70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>13302</v>
+      </c>
+      <c r="E71" s="0"/>
+      <c r="F71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>13226</v>
+      </c>
+      <c r="E72" s="0"/>
+      <c r="F72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>12083</v>
+      </c>
+      <c r="E73" s="0"/>
+      <c r="F73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>10047</v>
+      </c>
+      <c r="E74" s="0"/>
+      <c r="F74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>10997</v>
+      </c>
+      <c r="E75" s="0"/>
+      <c r="F75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>11755</v>
+      </c>
+      <c r="E76" s="0"/>
+      <c r="F76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>11627</v>
+      </c>
+      <c r="E77" s="0"/>
+      <c r="F77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>10223</v>
+      </c>
+      <c r="E78" s="0"/>
+      <c r="F78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>12758</v>
+      </c>
+      <c r="E79" s="0"/>
+      <c r="F79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>11667</v>
+      </c>
+      <c r="E80" s="0"/>
+      <c r="F80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>10141</v>
+      </c>
+      <c r="E81" s="0"/>
+      <c r="F81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>13204</v>
+      </c>
+      <c r="E82" s="0"/>
+      <c r="F82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>11121</v>
+      </c>
+      <c r="E83" s="0"/>
+      <c r="F83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>12660</v>
+      </c>
+      <c r="E84" s="0"/>
+      <c r="F84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>11365</v>
+      </c>
+      <c r="E85" s="0"/>
+      <c r="F85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>9143</v>
+      </c>
+      <c r="E86" s="0"/>
+      <c r="F86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
